--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -17,6 +17,21 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
     <t>Russian1-1</t>
   </si>
   <si>
@@ -26,70 +41,55 @@
     <t>English1-3</t>
   </si>
   <si>
-    <t>Litr1-4</t>
+    <t>English1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
+    <t>Phys1-1</t>
+  </si>
+  <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
   </si>
   <si>
     <t>Russian1-5</t>
   </si>
   <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
-    <t>Phys1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>English1-4</t>
-  </si>
-  <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>English2-1</t>
+  </si>
+  <si>
+    <t>Math2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
+  </si>
+  <si>
+    <t>English2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
     <t>Math2-1</t>
   </si>
   <si>
-    <t>Phys2-2</t>
+    <t>English2-2</t>
   </si>
   <si>
     <t>Phys2-3</t>
   </si>
   <si>
-    <t>Math2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Math2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>English2-4</t>
+    <t>Phys2-4</t>
   </si>
   <si>
     <t>Math2-5</t>
@@ -98,61 +98,61 @@
     <t>Wednesday</t>
   </si>
   <si>
+    <t>English3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>English3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>Phys3-1</t>
   </si>
   <si>
     <t>Phys3-2</t>
   </si>
   <si>
-    <t>English3-3</t>
+    <t>Phys3-3</t>
   </si>
   <si>
     <t>Litra3-4</t>
   </si>
   <si>
-    <t>English3-5</t>
+    <t>Phys3-5</t>
   </si>
   <si>
     <t>Russian3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>English3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
+    <t>Math4-1</t>
+  </si>
+  <si>
+    <t>Phys4-2</t>
+  </si>
+  <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
     <t>English4-1</t>
   </si>
   <si>
-    <t>Phys4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
-  </si>
-  <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>Math4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
+    <t>English4-2</t>
   </si>
   <si>
     <t>Math4-3</t>
@@ -170,13 +170,13 @@
     <t>Russian5-1</t>
   </si>
   <si>
-    <t>Phys5-2</t>
+    <t>Russian5-2</t>
   </si>
   <si>
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Phys5-4</t>
+    <t>Russian5-4</t>
   </si>
   <si>
     <t>Phys5-5</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -20,72 +20,72 @@
     <t>Math1-1</t>
   </si>
   <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>English1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
+    <t>Russian1-1</t>
+  </si>
+  <si>
+    <t>Russian1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Russian1-5</t>
+  </si>
+  <si>
+    <t>Phys1-1</t>
+  </si>
+  <si>
     <t>Math1-2</t>
   </si>
   <si>
     <t>Phys1-3</t>
   </si>
   <si>
-    <t>Litr1-4</t>
+    <t>English1-4</t>
   </si>
   <si>
     <t>Math1-5</t>
   </si>
   <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Russian1-2</t>
-  </si>
-  <si>
-    <t>English1-3</t>
-  </si>
-  <si>
-    <t>English1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
-    <t>Phys1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Russian1-5</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>Math2-1</t>
+  </si>
+  <si>
+    <t>Phys2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
+  </si>
+  <si>
+    <t>English2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
     <t>English2-1</t>
   </si>
   <si>
     <t>Math2-2</t>
   </si>
   <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>English2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
-    <t>Math2-1</t>
-  </si>
-  <si>
-    <t>English2-2</t>
-  </si>
-  <si>
     <t>Phys2-3</t>
   </si>
   <si>
@@ -98,67 +98,67 @@
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
+    <t>Phys3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Russian3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>English3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>English3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
-  </si>
-  <si>
-    <t>Phys3-1</t>
-  </si>
-  <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
     <t>Math4-1</t>
   </si>
   <si>
-    <t>Phys4-2</t>
+    <t>Math4-2</t>
   </si>
   <si>
     <t>Phys4-3</t>
   </si>
   <si>
+    <t>Phys4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>English4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
+  </si>
+  <si>
     <t>Math4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>English4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Phys4-4</t>
   </si>
   <si>
     <t>English4-5</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -17,13 +17,43 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Phys1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>English1-3</t>
+  </si>
+  <si>
+    <t>English1-4</t>
+  </si>
+  <si>
+    <t>Russian1-5</t>
+  </si>
+  <si>
     <t>Math1-1</t>
   </si>
   <si>
+    <t>Russian1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
+    <t>Russian1-1</t>
+  </si>
+  <si>
     <t>Litr1-2</t>
   </si>
   <si>
-    <t>English1-3</t>
+    <t>Litr1-3</t>
   </si>
   <si>
     <t>Math1-4</t>
@@ -32,39 +62,24 @@
     <t>Litr1-5</t>
   </si>
   <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Russian1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Litr1-4</t>
-  </si>
-  <si>
-    <t>Russian1-5</t>
-  </si>
-  <si>
-    <t>Phys1-1</t>
-  </si>
-  <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>English1-4</t>
-  </si>
-  <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>English2-1</t>
+  </si>
+  <si>
+    <t>English2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>English2-4</t>
+  </si>
+  <si>
+    <t>Math2-5</t>
+  </si>
+  <si>
     <t>Math2-1</t>
   </si>
   <si>
@@ -74,70 +89,55 @@
     <t>Math2-3</t>
   </si>
   <si>
-    <t>English2-4</t>
+    <t>Math2-4</t>
   </si>
   <si>
     <t>Phys2-5</t>
   </si>
   <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Math2-2</t>
-  </si>
-  <si>
-    <t>Phys2-3</t>
-  </si>
-  <si>
-    <t>Phys2-4</t>
-  </si>
-  <si>
-    <t>Math2-5</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>English3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>English3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
+    <t>Phys3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>Russian3-1</t>
   </si>
   <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>Phys3-1</t>
-  </si>
-  <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
-  </si>
-  <si>
-    <t>English3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
     <t>Math4-1</t>
   </si>
   <si>
-    <t>Math4-2</t>
+    <t>Phys4-2</t>
   </si>
   <si>
     <t>Phys4-3</t>
@@ -170,16 +170,16 @@
     <t>Russian5-1</t>
   </si>
   <si>
-    <t>Russian5-2</t>
+    <t>Phys5-2</t>
   </si>
   <si>
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Russian5-4</t>
-  </si>
-  <si>
-    <t>Phys5-5</t>
+    <t>Phys5-4</t>
+  </si>
+  <si>
+    <t>Math5-5</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -17,61 +17,76 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Russian1-5</t>
+  </si>
+  <si>
     <t>Phys1-1</t>
   </si>
   <si>
-    <t>Math1-2</t>
+    <t>Russian1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>English1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
+    <t>Russian1-1</t>
+  </si>
+  <si>
+    <t>Litr1-2</t>
   </si>
   <si>
     <t>English1-3</t>
   </si>
   <si>
-    <t>English1-4</t>
-  </si>
-  <si>
-    <t>Russian1-5</t>
-  </si>
-  <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Russian1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
     <t>Litr1-4</t>
   </si>
   <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
     <t>Litr1-5</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>Math2-1</t>
+  </si>
+  <si>
+    <t>Phys2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>Math2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
     <t>English2-1</t>
   </si>
   <si>
-    <t>English2-2</t>
-  </si>
-  <si>
-    <t>Phys2-3</t>
+    <t>Math2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
   </si>
   <si>
     <t>English2-4</t>
@@ -80,87 +95,72 @@
     <t>Math2-5</t>
   </si>
   <si>
-    <t>Math2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>Math2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>Russian3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>Litra3-5</t>
+  </si>
+  <si>
+    <t>Phys3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
     <t>English3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>English3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>Phys3-1</t>
-  </si>
-  <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
-  </si>
-  <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>Phys4-2</t>
+  </si>
+  <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
     <t>Math4-1</t>
   </si>
   <si>
-    <t>Phys4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
+    <t>Math4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
   </si>
   <si>
     <t>Phys4-4</t>
   </si>
   <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>English4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
     <t>English4-5</t>
   </si>
   <si>
@@ -170,7 +170,7 @@
     <t>Russian5-1</t>
   </si>
   <si>
-    <t>Phys5-2</t>
+    <t>Russian5-2</t>
   </si>
   <si>
     <t>Phys5-3</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -17,78 +17,78 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Phys1-1</t>
+  </si>
+  <si>
+    <t>Russian1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>English1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
+    <t>Russian1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
     <t>Math1-1</t>
   </si>
   <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>English1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
   </si>
   <si>
     <t>Russian1-5</t>
   </si>
   <si>
-    <t>Phys1-1</t>
-  </si>
-  <si>
-    <t>Russian1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>English1-4</t>
-  </si>
-  <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>English1-3</t>
-  </si>
-  <si>
-    <t>Litr1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
     <t>Math2-1</t>
   </si>
   <si>
+    <t>Math2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
+  </si>
+  <si>
+    <t>Phys2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
+    <t>English2-1</t>
+  </si>
+  <si>
     <t>Phys2-2</t>
   </si>
   <si>
     <t>Phys2-3</t>
   </si>
   <si>
-    <t>Math2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Math2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
     <t>English2-4</t>
   </si>
   <si>
@@ -101,43 +101,58 @@
     <t>Russian3-1</t>
   </si>
   <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>Litra3-5</t>
+  </si>
+  <si>
+    <t>English3-1</t>
+  </si>
+  <si>
     <t>Phys3-2</t>
   </si>
   <si>
     <t>Russian3-3</t>
   </si>
   <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>Litra3-5</t>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
   </si>
   <si>
     <t>Phys3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>English3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
     <t>English4-1</t>
   </si>
   <si>
-    <t>Phys4-2</t>
+    <t>English4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
+  </si>
+  <si>
+    <t>Phys4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
+    <t>Math4-1</t>
+  </si>
+  <si>
+    <t>Math4-2</t>
   </si>
   <si>
     <t>Phys4-3</t>
@@ -146,21 +161,6 @@
     <t>Math4-4</t>
   </si>
   <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>Math4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Phys4-4</t>
-  </si>
-  <si>
     <t>English4-5</t>
   </si>
   <si>
@@ -170,16 +170,16 @@
     <t>Russian5-1</t>
   </si>
   <si>
-    <t>Russian5-2</t>
+    <t>Phys5-2</t>
   </si>
   <si>
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Phys5-4</t>
-  </si>
-  <si>
-    <t>Math5-5</t>
+    <t>Math5-4</t>
+  </si>
+  <si>
+    <t>Phys5-5</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -20,54 +20,69 @@
     <t>Phys1-1</t>
   </si>
   <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>English1-4</t>
+  </si>
+  <si>
+    <t>Russian1-5</t>
+  </si>
+  <si>
+    <t>Russian1-1</t>
+  </si>
+  <si>
     <t>Russian1-2</t>
   </si>
   <si>
     <t>Litr1-3</t>
   </si>
   <si>
-    <t>English1-4</t>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>English1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
   </si>
   <si>
     <t>Math1-5</t>
   </si>
   <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>English1-3</t>
-  </si>
-  <si>
-    <t>Litr1-4</t>
-  </si>
-  <si>
-    <t>Russian1-5</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
     <t>Math2-1</t>
   </si>
   <si>
+    <t>Phys2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>English2-4</t>
+  </si>
+  <si>
+    <t>Math2-5</t>
+  </si>
+  <si>
+    <t>English2-1</t>
+  </si>
+  <si>
     <t>Math2-2</t>
   </si>
   <si>
@@ -80,24 +95,24 @@
     <t>Phys2-5</t>
   </si>
   <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Phys2-3</t>
-  </si>
-  <si>
-    <t>English2-4</t>
-  </si>
-  <si>
-    <t>Math2-5</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>English3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>Russian3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>Russian3-1</t>
   </si>
   <si>
@@ -113,21 +128,6 @@
     <t>Litra3-5</t>
   </si>
   <si>
-    <t>English3-1</t>
-  </si>
-  <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
-  </si>
-  <si>
     <t>Phys3-1</t>
   </si>
   <si>
@@ -140,24 +140,24 @@
     <t>English4-2</t>
   </si>
   <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Phys4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
+    <t>Math4-1</t>
+  </si>
+  <si>
+    <t>Math4-2</t>
+  </si>
+  <si>
     <t>Math4-3</t>
   </si>
   <si>
-    <t>Phys4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>Math4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
-  </si>
-  <si>
     <t>Math4-4</t>
   </si>
   <si>
@@ -176,7 +176,7 @@
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Math5-4</t>
+    <t>Phys5-4</t>
   </si>
   <si>
     <t>Phys5-5</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -20,81 +20,81 @@
     <t>Phys1-1</t>
   </si>
   <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>English1-3</t>
+  </si>
+  <si>
+    <t>English1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
+    <t>Russian1-1</t>
+  </si>
+  <si>
+    <t>Russian1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Russian1-5</t>
+  </si>
+  <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
     <t>Litr1-2</t>
   </si>
   <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>English1-4</t>
-  </si>
-  <si>
-    <t>Russian1-5</t>
-  </si>
-  <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Russian1-2</t>
-  </si>
-  <si>
     <t>Litr1-3</t>
   </si>
   <si>
-    <t>Litr1-4</t>
+    <t>Math1-4</t>
   </si>
   <si>
     <t>Litr1-5</t>
   </si>
   <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>English1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
     <t>Math2-1</t>
   </si>
   <si>
+    <t>Math2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>English2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
+    <t>English2-1</t>
+  </si>
+  <si>
     <t>Phys2-2</t>
   </si>
   <si>
-    <t>Phys2-3</t>
-  </si>
-  <si>
-    <t>English2-4</t>
+    <t>Math2-3</t>
+  </si>
+  <si>
+    <t>Math2-4</t>
   </si>
   <si>
     <t>Math2-5</t>
   </si>
   <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Math2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>Phys2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -104,6 +104,21 @@
     <t>Phys3-2</t>
   </si>
   <si>
+    <t>English3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
     <t>Russian3-3</t>
   </si>
   <si>
@@ -113,57 +128,42 @@
     <t>English3-5</t>
   </si>
   <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>Litra3-5</t>
-  </si>
-  <si>
     <t>Phys3-1</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
+    <t>Math4-1</t>
+  </si>
+  <si>
+    <t>English4-2</t>
+  </si>
+  <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Phys4-4</t>
+  </si>
+  <si>
+    <t>English4-5</t>
+  </si>
+  <si>
     <t>English4-1</t>
   </si>
   <si>
-    <t>English4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
-  </si>
-  <si>
-    <t>Phys4-4</t>
+    <t>Phys4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
   </si>
   <si>
     <t>Math4-5</t>
   </si>
   <si>
-    <t>Math4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
-    <t>English4-5</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -179,7 +179,7 @@
     <t>Phys5-4</t>
   </si>
   <si>
-    <t>Phys5-5</t>
+    <t>Math5-5</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -20,117 +20,117 @@
     <t>Phys1-1</t>
   </si>
   <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>English1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Russian1-5</t>
+  </si>
+  <si>
+    <t>Russian1-1</t>
+  </si>
+  <si>
     <t>Math1-2</t>
   </si>
   <si>
-    <t>English1-3</t>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Russian1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
   </si>
   <si>
     <t>English1-4</t>
   </si>
   <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Russian1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>Litr1-4</t>
-  </si>
-  <si>
-    <t>Russian1-5</t>
-  </si>
-  <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
     <t>Litr1-5</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>English2-1</t>
+  </si>
+  <si>
+    <t>English2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
+  </si>
+  <si>
+    <t>Phys2-4</t>
+  </si>
+  <si>
+    <t>Math2-5</t>
+  </si>
+  <si>
     <t>Math2-1</t>
   </si>
   <si>
-    <t>Math2-2</t>
+    <t>Phys2-2</t>
   </si>
   <si>
     <t>Phys2-3</t>
   </si>
   <si>
-    <t>English2-4</t>
+    <t>Math2-4</t>
   </si>
   <si>
     <t>Phys2-5</t>
   </si>
   <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>Math2-4</t>
-  </si>
-  <si>
-    <t>Math2-5</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Phys3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>English3-1</t>
   </si>
   <si>
     <t>Phys3-2</t>
   </si>
   <si>
-    <t>English3-3</t>
+    <t>Russian3-3</t>
   </si>
   <si>
     <t>Phys3-4</t>
   </si>
   <si>
-    <t>Phys3-5</t>
+    <t>Litra3-5</t>
   </si>
   <si>
     <t>Russian3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
-  </si>
-  <si>
-    <t>Phys3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -140,6 +140,21 @@
     <t>English4-2</t>
   </si>
   <si>
+    <t>Math4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>Math4-2</t>
+  </si>
+  <si>
     <t>Phys4-3</t>
   </si>
   <si>
@@ -149,28 +164,13 @@
     <t>English4-5</t>
   </si>
   <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>Phys4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Russian5-1</t>
   </si>
   <si>
-    <t>Phys5-2</t>
+    <t>Russian5-2</t>
   </si>
   <si>
     <t>Phys5-3</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Monday</t>
   </si>
@@ -20,55 +20,55 @@
     <t>Phys1-1</t>
   </si>
   <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
     <t>Litr1-2</t>
   </si>
   <si>
-    <t>English1-3</t>
+    <t>Litr1-3</t>
   </si>
   <si>
     <t>Math1-4</t>
   </si>
   <si>
-    <t>Russian1-5</t>
-  </si>
-  <si>
-    <t>Russian1-1</t>
-  </si>
-  <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>Litr1-4</t>
-  </si>
-  <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Russian1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>English1-4</t>
-  </si>
-  <si>
     <t>Litr1-5</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>Math2-1</t>
+  </si>
+  <si>
+    <t>English2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>Math2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
     <t>English2-1</t>
   </si>
   <si>
-    <t>English2-2</t>
+    <t>Phys2-2</t>
   </si>
   <si>
     <t>Math2-3</t>
@@ -80,64 +80,64 @@
     <t>Math2-5</t>
   </si>
   <si>
-    <t>Math2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Phys2-3</t>
-  </si>
-  <si>
-    <t>Math2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>Phys3-1</t>
   </si>
   <si>
     <t>Russian3-2</t>
   </si>
   <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
+    <t>Russian3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
   </si>
   <si>
     <t>English3-1</t>
   </si>
   <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>Litra3-5</t>
-  </si>
-  <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
     <t>Math4-1</t>
   </si>
   <si>
-    <t>English4-2</t>
+    <t>Phys4-2</t>
+  </si>
+  <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Phys4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>Math4-2</t>
   </si>
   <si>
     <t>Math4-3</t>
@@ -146,21 +146,6 @@
     <t>Math4-4</t>
   </si>
   <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
-  </si>
-  <si>
-    <t>Phys4-4</t>
-  </si>
-  <si>
     <t>English4-5</t>
   </si>
   <si>
@@ -179,7 +164,7 @@
     <t>Phys5-4</t>
   </si>
   <si>
-    <t>Math5-5</t>
+    <t>Phys5-5</t>
   </si>
 </sst>
 </file>
@@ -224,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -269,26 +254,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5"/>
+    </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -309,26 +294,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9"/>
+    </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -353,27 +338,27 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14"/>
+    </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -394,47 +379,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18"/>
+    </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21"/>
+    <row r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -20,6 +20,21 @@
     <t>Phys1-1</t>
   </si>
   <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
     <t>Math1-2</t>
   </si>
   <si>
@@ -32,34 +47,19 @@
     <t>Math1-5</t>
   </si>
   <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
     <t>Math2-1</t>
   </si>
   <si>
-    <t>English2-2</t>
+    <t>Math2-2</t>
   </si>
   <si>
     <t>Phys2-3</t>
   </si>
   <si>
-    <t>Math2-4</t>
+    <t>English2-4</t>
   </si>
   <si>
     <t>Phys2-5</t>
@@ -83,39 +83,39 @@
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Phys3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
+    <t>English3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>English3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>Russian3-1</t>
   </si>
   <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
-  </si>
-  <si>
-    <t>Phys3-1</t>
-  </si>
-  <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>English3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -128,25 +128,25 @@
     <t>Phys4-3</t>
   </si>
   <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>English4-5</t>
+  </si>
+  <si>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>English4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
+  </si>
+  <si>
     <t>Phys4-4</t>
   </si>
   <si>
     <t>Math4-5</t>
-  </si>
-  <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
-    <t>English4-5</t>
   </si>
   <si>
     <t>Friday</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -17,30 +17,30 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
     <t>Phys1-1</t>
   </si>
   <si>
-    <t>Litr1-2</t>
+    <t>Math1-2</t>
   </si>
   <si>
     <t>Litr1-3</t>
   </si>
   <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
     <t>Litr1-4</t>
   </si>
   <si>
@@ -53,7 +53,22 @@
     <t>Math2-1</t>
   </si>
   <si>
-    <t>Math2-2</t>
+    <t>English2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
+  </si>
+  <si>
+    <t>Math2-4</t>
+  </si>
+  <si>
+    <t>Math2-5</t>
+  </si>
+  <si>
+    <t>English2-1</t>
+  </si>
+  <si>
+    <t>Phys2-2</t>
   </si>
   <si>
     <t>Phys2-3</t>
@@ -65,64 +80,49 @@
     <t>Phys2-5</t>
   </si>
   <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>Phys2-4</t>
-  </si>
-  <si>
-    <t>Math2-5</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>English3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Russian3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
     <t>Phys3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>English3-1</t>
-  </si>
-  <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>English3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
-  </si>
-  <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
     <t>Math4-1</t>
   </si>
   <si>
-    <t>Phys4-2</t>
+    <t>Math4-2</t>
   </si>
   <si>
     <t>Phys4-3</t>
@@ -161,7 +161,7 @@
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Phys5-4</t>
+    <t>Russian5-4</t>
   </si>
   <si>
     <t>Phys5-5</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -12,29 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>Monday</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>Phys1-1</t>
+  </si>
+  <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
   </si>
   <si>
     <t>Math1-1</t>
   </si>
   <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
-    <t>Phys1-1</t>
-  </si>
-  <si>
     <t>Math1-2</t>
   </si>
   <si>
@@ -47,13 +44,25 @@
     <t>Math1-5</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
     <t>Math2-1</t>
   </si>
   <si>
-    <t>English2-2</t>
+    <t>Phys2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>Phys2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
+    <t>English2-1</t>
+  </si>
+  <si>
+    <t>Math2-2</t>
   </si>
   <si>
     <t>Math2-3</t>
@@ -65,58 +74,52 @@
     <t>Math2-5</t>
   </si>
   <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Phys2-3</t>
-  </si>
-  <si>
-    <t>English2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
     <t>English3-1</t>
   </si>
   <si>
     <t>Phys3-2</t>
   </si>
   <si>
+    <t>Russian3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
+    <t>Phys3-1</t>
+  </si>
+  <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
     <t>Phys3-3</t>
   </si>
   <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>English3-5</t>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
   </si>
   <si>
     <t>Russian3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>Phys3-1</t>
-  </si>
-  <si>
-    <t>Thursday</t>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>Phys4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
   </si>
   <si>
     <t>Math4-1</t>
@@ -128,30 +131,12 @@
     <t>Phys4-3</t>
   </si>
   <si>
-    <t>Math4-4</t>
+    <t>Phys4-4</t>
   </si>
   <si>
     <t>English4-5</t>
   </si>
   <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>English4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Phys4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>Russian5-1</t>
   </si>
   <si>
@@ -161,10 +146,10 @@
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Russian5-4</t>
-  </si>
-  <si>
-    <t>Phys5-5</t>
+    <t>Phys5-4</t>
+  </si>
+  <si>
+    <t>Math5-5</t>
   </si>
 </sst>
 </file>
@@ -216,190 +201,190 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4"/>
     <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8"/>
     <row r="9">
-      <c r="A9" t="s">
-        <v>22</v>
+      <c r="A9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s">
-        <v>34</v>
+      <c r="A14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17"/>
     <row r="18">
-      <c r="A18" t="s">
-        <v>45</v>
+      <c r="A18" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20"/>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -14,57 +14,57 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
     <t>Phys1-1</t>
   </si>
   <si>
     <t>Litr1-2</t>
   </si>
   <si>
-    <t>Phys1-3</t>
+    <t>Litr1-3</t>
   </si>
   <si>
     <t>Math1-4</t>
   </si>
   <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Litr1-4</t>
-  </si>
-  <si>
     <t>Math1-5</t>
   </si>
   <si>
+    <t>English2-1</t>
+  </si>
+  <si>
+    <t>Math2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>Phys2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
     <t>Math2-1</t>
   </si>
   <si>
     <t>Phys2-2</t>
   </si>
   <si>
-    <t>Phys2-3</t>
-  </si>
-  <si>
-    <t>Phys2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Math2-2</t>
-  </si>
-  <si>
     <t>Math2-3</t>
   </si>
   <si>
@@ -74,63 +74,63 @@
     <t>Math2-5</t>
   </si>
   <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>English3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
     <t>English3-1</t>
   </si>
   <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Russian3-3</t>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
   </si>
   <si>
     <t>Phys3-4</t>
   </si>
   <si>
-    <t>English3-5</t>
+    <t>Litra3-5</t>
   </si>
   <si>
     <t>Phys3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
-    <t>Phys3-5</t>
-  </si>
-  <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
     <t>English4-1</t>
   </si>
   <si>
     <t>Phys4-2</t>
   </si>
   <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
+    <t>Math4-1</t>
+  </si>
+  <si>
+    <t>English4-2</t>
+  </si>
+  <si>
     <t>Math4-3</t>
   </si>
   <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>Math4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
-  </si>
-  <si>
     <t>Phys4-4</t>
   </si>
   <si>
@@ -140,13 +140,13 @@
     <t>Russian5-1</t>
   </si>
   <si>
-    <t>Russian5-2</t>
+    <t>Phys5-2</t>
   </si>
   <si>
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Phys5-4</t>
+    <t>Math5-4</t>
   </si>
   <si>
     <t>Math5-5</t>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -14,43 +14,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
+    <t>Phys1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
     <t>Math1-1</t>
   </si>
   <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>Litr1-4</t>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
   </si>
   <si>
     <t>Litr1-5</t>
   </si>
   <si>
-    <t>Phys1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Math1-5</t>
+    <t>Math2-1</t>
+  </si>
+  <si>
+    <t>English2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>English2-4</t>
+  </si>
+  <si>
+    <t>Math2-5</t>
   </si>
   <si>
     <t>English2-1</t>
   </si>
   <si>
-    <t>Math2-2</t>
-  </si>
-  <si>
-    <t>Phys2-3</t>
+    <t>Phys2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
   </si>
   <si>
     <t>Phys2-4</t>
@@ -59,78 +74,63 @@
     <t>Phys2-5</t>
   </si>
   <si>
-    <t>Math2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>Math2-4</t>
-  </si>
-  <si>
-    <t>Math2-5</t>
+    <t>Phys3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>Russian3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
   </si>
   <si>
     <t>Russian3-1</t>
   </si>
   <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>English3-3</t>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>Phys3-3</t>
   </si>
   <si>
     <t>Litra3-4</t>
   </si>
   <si>
-    <t>Phys3-5</t>
+    <t>Litra3-5</t>
   </si>
   <si>
     <t>English3-1</t>
   </si>
   <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>Litra3-5</t>
-  </si>
-  <si>
-    <t>Phys3-1</t>
+    <t>Math4-1</t>
+  </si>
+  <si>
+    <t>Phys4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
   </si>
   <si>
     <t>English4-1</t>
   </si>
   <si>
-    <t>Phys4-2</t>
+    <t>Math4-2</t>
   </si>
   <si>
     <t>Phys4-3</t>
   </si>
   <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>Math4-1</t>
-  </si>
-  <si>
-    <t>English4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
     <t>Phys4-4</t>
   </si>
   <si>
@@ -146,10 +146,10 @@
     <t>Phys5-3</t>
   </si>
   <si>
-    <t>Math5-4</t>
-  </si>
-  <si>
-    <t>Math5-5</t>
+    <t>Phys5-4</t>
+  </si>
+  <si>
+    <t>Phys5-5</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -20,87 +20,87 @@
     <t>Math1-2</t>
   </si>
   <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>Litr1-4</t>
+  </si>
+  <si>
+    <t>Math1-5</t>
+  </si>
+  <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Litr1-2</t>
+  </si>
+  <si>
     <t>Phys1-3</t>
   </si>
   <si>
-    <t>Litr1-4</t>
-  </si>
-  <si>
-    <t>Math1-5</t>
-  </si>
-  <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
-  </si>
-  <si>
     <t>Math1-4</t>
   </si>
   <si>
     <t>Litr1-5</t>
   </si>
   <si>
+    <t>English2-1</t>
+  </si>
+  <si>
+    <t>English2-2</t>
+  </si>
+  <si>
+    <t>Math2-3</t>
+  </si>
+  <si>
+    <t>English2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
     <t>Math2-1</t>
   </si>
   <si>
-    <t>English2-2</t>
+    <t>Phys2-2</t>
   </si>
   <si>
     <t>Phys2-3</t>
   </si>
   <si>
-    <t>English2-4</t>
+    <t>Phys2-4</t>
   </si>
   <si>
     <t>Math2-5</t>
   </si>
   <si>
-    <t>English2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Math2-3</t>
-  </si>
-  <si>
-    <t>Phys2-4</t>
-  </si>
-  <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
     <t>Phys3-1</t>
   </si>
   <si>
+    <t>Russian3-2</t>
+  </si>
+  <si>
+    <t>English3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>Phys3-5</t>
+  </si>
+  <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
     <t>Phys3-2</t>
   </si>
   <si>
-    <t>Russian3-3</t>
+    <t>Phys3-3</t>
   </si>
   <si>
     <t>Phys3-4</t>
   </si>
   <si>
-    <t>English3-5</t>
-  </si>
-  <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
-    <t>Russian3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
-  </si>
-  <si>
     <t>Litra3-5</t>
   </si>
   <si>
@@ -113,24 +113,24 @@
     <t>Phys4-2</t>
   </si>
   <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Math4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>Math4-2</t>
+  </si>
+  <si>
     <t>Math4-3</t>
   </si>
   <si>
-    <t>Math4-4</t>
-  </si>
-  <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
-  </si>
-  <si>
     <t>Phys4-4</t>
   </si>
   <si>
@@ -149,7 +149,7 @@
     <t>Phys5-4</t>
   </si>
   <si>
-    <t>Phys5-5</t>
+    <t>Math5-5</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/xlsx/test.xlsx
+++ b/src/main/resources/xlsx/test.xlsx
@@ -14,13 +14,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
+    <t>Math1-1</t>
+  </si>
+  <si>
+    <t>Math1-2</t>
+  </si>
+  <si>
+    <t>Litr1-3</t>
+  </si>
+  <si>
+    <t>Math1-4</t>
+  </si>
+  <si>
+    <t>Litr1-5</t>
+  </si>
+  <si>
     <t>Phys1-1</t>
   </si>
   <si>
-    <t>Math1-2</t>
-  </si>
-  <si>
-    <t>Litr1-3</t>
+    <t>Litr1-2</t>
+  </si>
+  <si>
+    <t>Phys1-3</t>
   </si>
   <si>
     <t>Litr1-4</t>
@@ -29,25 +44,25 @@
     <t>Math1-5</t>
   </si>
   <si>
-    <t>Math1-1</t>
-  </si>
-  <si>
-    <t>Litr1-2</t>
-  </si>
-  <si>
-    <t>Phys1-3</t>
-  </si>
-  <si>
-    <t>Math1-4</t>
-  </si>
-  <si>
-    <t>Litr1-5</t>
-  </si>
-  <si>
     <t>English2-1</t>
   </si>
   <si>
-    <t>English2-2</t>
+    <t>Math2-2</t>
+  </si>
+  <si>
+    <t>Phys2-3</t>
+  </si>
+  <si>
+    <t>Math2-4</t>
+  </si>
+  <si>
+    <t>Phys2-5</t>
+  </si>
+  <si>
+    <t>Math2-1</t>
+  </si>
+  <si>
+    <t>Phys2-2</t>
   </si>
   <si>
     <t>Math2-3</t>
@@ -56,84 +71,69 @@
     <t>English2-4</t>
   </si>
   <si>
-    <t>Phys2-5</t>
-  </si>
-  <si>
-    <t>Math2-1</t>
-  </si>
-  <si>
-    <t>Phys2-2</t>
-  </si>
-  <si>
-    <t>Phys2-3</t>
-  </si>
-  <si>
-    <t>Phys2-4</t>
-  </si>
-  <si>
     <t>Math2-5</t>
   </si>
   <si>
+    <t>Russian3-1</t>
+  </si>
+  <si>
+    <t>Phys3-2</t>
+  </si>
+  <si>
+    <t>English3-3</t>
+  </si>
+  <si>
+    <t>Litra3-4</t>
+  </si>
+  <si>
+    <t>English3-5</t>
+  </si>
+  <si>
     <t>Phys3-1</t>
   </si>
   <si>
     <t>Russian3-2</t>
   </si>
   <si>
-    <t>English3-3</t>
-  </si>
-  <si>
-    <t>Litra3-4</t>
+    <t>Phys3-3</t>
+  </si>
+  <si>
+    <t>Phys3-4</t>
   </si>
   <si>
     <t>Phys3-5</t>
   </si>
   <si>
-    <t>Russian3-1</t>
-  </si>
-  <si>
-    <t>Phys3-2</t>
-  </si>
-  <si>
-    <t>Phys3-3</t>
-  </si>
-  <si>
-    <t>Phys3-4</t>
-  </si>
-  <si>
-    <t>Litra3-5</t>
-  </si>
-  <si>
     <t>English3-1</t>
   </si>
   <si>
+    <t>English4-1</t>
+  </si>
+  <si>
+    <t>Phys4-2</t>
+  </si>
+  <si>
+    <t>Phys4-3</t>
+  </si>
+  <si>
+    <t>Phys4-4</t>
+  </si>
+  <si>
+    <t>Math4-5</t>
+  </si>
+  <si>
     <t>Math4-1</t>
   </si>
   <si>
-    <t>Phys4-2</t>
-  </si>
-  <si>
-    <t>Phys4-3</t>
+    <t>English4-2</t>
+  </si>
+  <si>
+    <t>Math4-3</t>
   </si>
   <si>
     <t>Math4-4</t>
   </si>
   <si>
-    <t>Math4-5</t>
-  </si>
-  <si>
-    <t>English4-1</t>
-  </si>
-  <si>
-    <t>Math4-2</t>
-  </si>
-  <si>
-    <t>Math4-3</t>
-  </si>
-  <si>
-    <t>Phys4-4</t>
-  </si>
-  <si>
     <t>English4-5</t>
   </si>
   <si>
@@ -149,7 +149,7 @@
     <t>Phys5-4</t>
   </si>
   <si>
-    <t>Math5-5</t>
+    <t>Phys5-5</t>
   </si>
 </sst>
 </file>
